--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/F2-Thbd.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/F2-Thbd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>Thbd</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>Thbd</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.9141865</v>
+        <v>0.627495</v>
       </c>
       <c r="H2">
-        <v>3.828373</v>
+        <v>1.25499</v>
       </c>
       <c r="I2">
-        <v>0.5304889167995069</v>
+        <v>0.4221230570832646</v>
       </c>
       <c r="J2">
-        <v>0.4469022060086147</v>
+        <v>0.3536267886120559</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.3131355</v>
+        <v>43.1011505</v>
       </c>
       <c r="N2">
-        <v>88.626271</v>
+        <v>86.20230100000001</v>
       </c>
       <c r="O2">
-        <v>0.3703811871594727</v>
+        <v>0.4013145655884081</v>
       </c>
       <c r="P2">
-        <v>0.2883888216544467</v>
+        <v>0.3190709442524837</v>
       </c>
       <c r="Q2">
-        <v>84.82360574677075</v>
+        <v>27.0457564329975</v>
       </c>
       <c r="R2">
-        <v>339.294422987083</v>
+        <v>108.18302573199</v>
       </c>
       <c r="S2">
-        <v>0.1964831147791441</v>
+        <v>0.1694041312782211</v>
       </c>
       <c r="T2">
-        <v>0.1288816005855972</v>
+        <v>0.1128320333554221</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.9141865</v>
+        <v>0.627495</v>
       </c>
       <c r="H3">
-        <v>3.828373</v>
+        <v>1.25499</v>
       </c>
       <c r="I3">
-        <v>0.5304889167995069</v>
+        <v>0.4221230570832646</v>
       </c>
       <c r="J3">
-        <v>0.4469022060086147</v>
+        <v>0.3536267886120559</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>44.872277</v>
       </c>
       <c r="O3">
-        <v>0.1250182144134117</v>
+        <v>0.1392685047639097</v>
       </c>
       <c r="P3">
-        <v>0.1460138505543343</v>
+        <v>0.1660911556542906</v>
       </c>
       <c r="Q3">
-        <v>28.63130228588683</v>
+        <v>9.385709818705001</v>
       </c>
       <c r="R3">
-        <v>171.787813715321</v>
+        <v>56.31425891223001</v>
       </c>
       <c r="S3">
-        <v>0.0663207771443793</v>
+        <v>0.05878844698635676</v>
       </c>
       <c r="T3">
-        <v>0.06525391192054418</v>
+        <v>0.05873428199089187</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.9141865</v>
+        <v>0.627495</v>
       </c>
       <c r="H4">
-        <v>3.828373</v>
+        <v>1.25499</v>
       </c>
       <c r="I4">
-        <v>0.5304889167995069</v>
+        <v>0.4221230570832646</v>
       </c>
       <c r="J4">
-        <v>0.4469022060086147</v>
+        <v>0.3536267886120559</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.891776</v>
+        <v>21.215307</v>
       </c>
       <c r="N4">
-        <v>44.675328</v>
+        <v>63.645921</v>
       </c>
       <c r="O4">
-        <v>0.124469496720514</v>
+        <v>0.197535602037577</v>
       </c>
       <c r="P4">
-        <v>0.1453729808731985</v>
+        <v>0.2355803020999286</v>
       </c>
       <c r="Q4">
-        <v>28.505636580224</v>
+        <v>13.312499065965</v>
       </c>
       <c r="R4">
-        <v>171.033819481344</v>
+        <v>79.87499439579001</v>
       </c>
       <c r="S4">
-        <v>0.06602968848984526</v>
+        <v>0.08338433221488516</v>
       </c>
       <c r="T4">
-        <v>0.06496750584628055</v>
+        <v>0.08330750569185572</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.9141865</v>
+        <v>0.627495</v>
       </c>
       <c r="H5">
-        <v>3.828373</v>
+        <v>1.25499</v>
       </c>
       <c r="I5">
-        <v>0.5304889167995069</v>
+        <v>0.4221230570832646</v>
       </c>
       <c r="J5">
-        <v>0.4469022060086147</v>
+        <v>0.3536267886120559</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.297570499999999</v>
+        <v>8.932031500000001</v>
       </c>
       <c r="N5">
-        <v>14.595141</v>
+        <v>17.864063</v>
       </c>
       <c r="O5">
-        <v>0.06099507052869112</v>
+        <v>0.08316609416828624</v>
       </c>
       <c r="P5">
-        <v>0.04749241356290961</v>
+        <v>0.06612240489492104</v>
       </c>
       <c r="Q5">
-        <v>13.96891093389825</v>
+        <v>5.604805106092501</v>
       </c>
       <c r="R5">
-        <v>55.87564373559299</v>
+        <v>22.41922042437</v>
       </c>
       <c r="S5">
-        <v>0.03235720889487488</v>
+        <v>0.03510632591599165</v>
       </c>
       <c r="T5">
-        <v>0.02122446438993775</v>
+        <v>0.02338265369829701</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.9141865</v>
+        <v>0.627495</v>
       </c>
       <c r="H6">
-        <v>3.828373</v>
+        <v>1.25499</v>
       </c>
       <c r="I6">
-        <v>0.5304889167995069</v>
+        <v>0.4221230570832646</v>
       </c>
       <c r="J6">
-        <v>0.4469022060086147</v>
+        <v>0.3536267886120559</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.34831033333333</v>
+        <v>7.405844333333333</v>
       </c>
       <c r="N6">
-        <v>88.04493099999999</v>
+        <v>22.217533</v>
       </c>
       <c r="O6">
-        <v>0.2453011257211672</v>
+        <v>0.06895577419556446</v>
       </c>
       <c r="P6">
-        <v>0.2864971482748841</v>
+        <v>0.0822364269982853</v>
       </c>
       <c r="Q6">
-        <v>56.17813943787716</v>
+        <v>4.647130289945</v>
       </c>
       <c r="R6">
-        <v>337.068836627263</v>
+        <v>27.88278173967</v>
       </c>
       <c r="S6">
-        <v>0.1301295284735217</v>
+        <v>0.02910782220697496</v>
       </c>
       <c r="T6">
-        <v>0.1280362075792229</v>
+        <v>0.0290810035863334</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.9141865</v>
+        <v>0.627495</v>
       </c>
       <c r="H7">
-        <v>3.828373</v>
+        <v>1.25499</v>
       </c>
       <c r="I7">
-        <v>0.5304889167995069</v>
+        <v>0.4221230570832646</v>
       </c>
       <c r="J7">
-        <v>0.4469022060086147</v>
+        <v>0.3536267886120559</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.833753666666667</v>
+        <v>11.78815666666667</v>
       </c>
       <c r="N7">
-        <v>26.501261</v>
+        <v>35.36447</v>
       </c>
       <c r="O7">
-        <v>0.07383490545674307</v>
+        <v>0.1097594592462545</v>
       </c>
       <c r="P7">
-        <v>0.08623478508022686</v>
+        <v>0.1308987661000909</v>
       </c>
       <c r="Q7">
-        <v>16.90945201305883</v>
+        <v>7.397009367550001</v>
       </c>
       <c r="R7">
-        <v>101.456712078353</v>
+        <v>44.38205620530001</v>
       </c>
       <c r="S7">
-        <v>0.03916859901774163</v>
+        <v>0.04633199848083493</v>
       </c>
       <c r="T7">
-        <v>0.03853851568703216</v>
+        <v>0.04628931028925579</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>1.574238</v>
       </c>
       <c r="I8">
-        <v>0.145425713291194</v>
+        <v>0.3530026306380366</v>
       </c>
       <c r="J8">
-        <v>0.1837674738022104</v>
+        <v>0.4435833978366884</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>44.3131355</v>
+        <v>43.1011505</v>
       </c>
       <c r="N8">
-        <v>88.626271</v>
+        <v>86.20230100000001</v>
       </c>
       <c r="O8">
-        <v>0.3703811871594727</v>
+        <v>0.4013145655884081</v>
       </c>
       <c r="P8">
-        <v>0.2883888216544467</v>
+        <v>0.3190709442524837</v>
       </c>
       <c r="Q8">
-        <v>23.253140601083</v>
+        <v>22.617156320273</v>
       </c>
       <c r="R8">
-        <v>139.518843606498</v>
+        <v>135.702937921638</v>
       </c>
       <c r="S8">
-        <v>0.05386294833230553</v>
+        <v>0.1416650973660689</v>
       </c>
       <c r="T8">
-        <v>0.05299648522823386</v>
+        <v>0.1415345736024773</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>1.574238</v>
       </c>
       <c r="I9">
-        <v>0.145425713291194</v>
+        <v>0.3530026306380366</v>
       </c>
       <c r="J9">
-        <v>0.1837674738022104</v>
+        <v>0.4435833978366884</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>44.872277</v>
       </c>
       <c r="O9">
-        <v>0.1250182144134117</v>
+        <v>0.1392685047639097</v>
       </c>
       <c r="P9">
-        <v>0.1460138505543343</v>
+        <v>0.1660911556542906</v>
       </c>
       <c r="Q9">
-        <v>7.848849288880666</v>
+        <v>7.848849288880667</v>
       </c>
       <c r="R9">
-        <v>70.63964359992599</v>
+        <v>70.639643599926</v>
       </c>
       <c r="S9">
-        <v>0.01818086300546183</v>
+        <v>0.04916214854668606</v>
       </c>
       <c r="T9">
-        <v>0.02683259645650349</v>
+        <v>0.07367527917575251</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>1.574238</v>
       </c>
       <c r="I10">
-        <v>0.145425713291194</v>
+        <v>0.3530026306380366</v>
       </c>
       <c r="J10">
-        <v>0.1837674738022104</v>
+        <v>0.4435833978366884</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.891776</v>
+        <v>21.215307</v>
       </c>
       <c r="N10">
-        <v>44.675328</v>
+        <v>63.645921</v>
       </c>
       <c r="O10">
-        <v>0.124469496720514</v>
+        <v>0.197535602037577</v>
       </c>
       <c r="P10">
-        <v>0.1453729808731985</v>
+        <v>0.2355803020999286</v>
       </c>
       <c r="Q10">
-        <v>7.814399888896001</v>
+        <v>11.132647487022</v>
       </c>
       <c r="R10">
-        <v>70.32959900006401</v>
+        <v>100.193827383198</v>
       </c>
       <c r="S10">
-        <v>0.01810106534357668</v>
+        <v>0.06973058716393299</v>
       </c>
       <c r="T10">
-        <v>0.02671482545416474</v>
+        <v>0.1044995108688799</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>1.574238</v>
       </c>
       <c r="I11">
-        <v>0.145425713291194</v>
+        <v>0.3530026306380366</v>
       </c>
       <c r="J11">
-        <v>0.1837674738022104</v>
+        <v>0.4435833978366884</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.297570499999999</v>
+        <v>8.932031500000001</v>
       </c>
       <c r="N11">
-        <v>14.595141</v>
+        <v>17.864063</v>
       </c>
       <c r="O11">
-        <v>0.06099507052869112</v>
+        <v>0.08316609416828624</v>
       </c>
       <c r="P11">
-        <v>0.04749241356290961</v>
+        <v>0.06612240489492104</v>
       </c>
       <c r="Q11">
-        <v>3.829370929593</v>
+        <v>4.687047801499001</v>
       </c>
       <c r="R11">
-        <v>22.976225577558</v>
+        <v>28.122286808994</v>
       </c>
       <c r="S11">
-        <v>0.008870251638881591</v>
+        <v>0.02935785002129572</v>
       </c>
       <c r="T11">
-        <v>0.008727560865225732</v>
+        <v>0.02933080103642235</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>1.574238</v>
       </c>
       <c r="I12">
-        <v>0.145425713291194</v>
+        <v>0.3530026306380366</v>
       </c>
       <c r="J12">
-        <v>0.1837674738022104</v>
+        <v>0.4435833978366884</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>29.34831033333333</v>
+        <v>7.405844333333333</v>
       </c>
       <c r="N12">
-        <v>88.04493099999999</v>
+        <v>22.217533</v>
       </c>
       <c r="O12">
-        <v>0.2453011257211672</v>
+        <v>0.06895577419556446</v>
       </c>
       <c r="P12">
-        <v>0.2864971482748841</v>
+        <v>0.0822364269982853</v>
       </c>
       <c r="Q12">
-        <v>15.40040845417533</v>
+        <v>3.886187190539334</v>
       </c>
       <c r="R12">
-        <v>138.603676087578</v>
+        <v>34.975684714854</v>
       </c>
       <c r="S12">
-        <v>0.03567309117913359</v>
+        <v>0.0243415696887167</v>
       </c>
       <c r="T12">
-        <v>0.05264885719001275</v>
+        <v>0.03647871371384818</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>1.574238</v>
       </c>
       <c r="I13">
-        <v>0.145425713291194</v>
+        <v>0.3530026306380366</v>
       </c>
       <c r="J13">
-        <v>0.1837674738022104</v>
+        <v>0.4435833978366884</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.833753666666667</v>
+        <v>11.78815666666667</v>
       </c>
       <c r="N13">
-        <v>26.501261</v>
+        <v>35.36447</v>
       </c>
       <c r="O13">
-        <v>0.07383490545674307</v>
+        <v>0.1097594592462545</v>
       </c>
       <c r="P13">
-        <v>0.08623478508022686</v>
+        <v>0.1308987661000909</v>
       </c>
       <c r="Q13">
-        <v>4.635476901568667</v>
+        <v>6.185788058206668</v>
       </c>
       <c r="R13">
-        <v>41.719292114118</v>
+        <v>55.67209252386001</v>
       </c>
       <c r="S13">
-        <v>0.01073749379183473</v>
+        <v>0.03874537785133619</v>
       </c>
       <c r="T13">
-        <v>0.01584714860806983</v>
+        <v>0.05806451943930825</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,19 +1284,19 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1234456666666667</v>
+        <v>0.2831585</v>
       </c>
       <c r="H14">
-        <v>0.370337</v>
+        <v>0.566317</v>
       </c>
       <c r="I14">
-        <v>0.03421116907552791</v>
+        <v>0.1904839586914821</v>
       </c>
       <c r="J14">
-        <v>0.04323100760208379</v>
+        <v>0.1595748667689891</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>44.3131355</v>
+        <v>43.1011505</v>
       </c>
       <c r="N14">
-        <v>88.626271</v>
+        <v>86.20230100000001</v>
       </c>
       <c r="O14">
-        <v>0.3703811871594727</v>
+        <v>0.4013145655884081</v>
       </c>
       <c r="P14">
-        <v>0.2883888216544467</v>
+        <v>0.3190709442524837</v>
       </c>
       <c r="Q14">
-        <v>5.470264553887834</v>
+        <v>12.20445712385425</v>
       </c>
       <c r="R14">
-        <v>32.821587323327</v>
+        <v>48.817828495417</v>
       </c>
       <c r="S14">
-        <v>0.01267117341630747</v>
+        <v>0.07644398713383242</v>
       </c>
       <c r="T14">
-        <v>0.01246733934129937</v>
+        <v>0.05091570341894563</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,19 +1346,19 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1234456666666667</v>
+        <v>0.2831585</v>
       </c>
       <c r="H15">
-        <v>0.370337</v>
+        <v>0.566317</v>
       </c>
       <c r="I15">
-        <v>0.03421116907552791</v>
+        <v>0.1904839586914821</v>
       </c>
       <c r="J15">
-        <v>0.04323100760208379</v>
+        <v>0.1595748667689891</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>44.872277</v>
       </c>
       <c r="O15">
-        <v>0.1250182144134117</v>
+        <v>0.1392685047639097</v>
       </c>
       <c r="P15">
-        <v>0.1460138505543343</v>
+        <v>0.1660911556542906</v>
       </c>
       <c r="Q15">
-        <v>1.846429383038778</v>
+        <v>4.235322215634834</v>
       </c>
       <c r="R15">
-        <v>16.617864447349</v>
+        <v>25.411933293809</v>
       </c>
       <c r="S15">
-        <v>0.004277019270817829</v>
+        <v>0.02652841610847305</v>
       </c>
       <c r="T15">
-        <v>0.006312325883323952</v>
+        <v>0.02650397403504085</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1234456666666667</v>
+        <v>0.2831585</v>
       </c>
       <c r="H16">
-        <v>0.370337</v>
+        <v>0.566317</v>
       </c>
       <c r="I16">
-        <v>0.03421116907552791</v>
+        <v>0.1904839586914821</v>
       </c>
       <c r="J16">
-        <v>0.04323100760208379</v>
+        <v>0.1595748667689891</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.891776</v>
+        <v>21.215307</v>
       </c>
       <c r="N16">
-        <v>44.675328</v>
+        <v>63.645921</v>
       </c>
       <c r="O16">
-        <v>0.124469496720514</v>
+        <v>0.197535602037577</v>
       </c>
       <c r="P16">
-        <v>0.1453729808731985</v>
+        <v>0.2355803020999286</v>
       </c>
       <c r="Q16">
-        <v>1.838325216170667</v>
+        <v>6.007294507159499</v>
       </c>
       <c r="R16">
-        <v>16.544926945536</v>
+        <v>36.043767042957</v>
       </c>
       <c r="S16">
-        <v>0.004258246997051372</v>
+        <v>0.03762736345862287</v>
       </c>
       <c r="T16">
-        <v>0.006284620441266826</v>
+        <v>0.03759269532099431</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1234456666666667</v>
+        <v>0.2831585</v>
       </c>
       <c r="H17">
-        <v>0.370337</v>
+        <v>0.566317</v>
       </c>
       <c r="I17">
-        <v>0.03421116907552791</v>
+        <v>0.1904839586914821</v>
       </c>
       <c r="J17">
-        <v>0.04323100760208379</v>
+        <v>0.1595748667689891</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.297570499999999</v>
+        <v>8.932031500000001</v>
       </c>
       <c r="N17">
-        <v>14.595141</v>
+        <v>17.864063</v>
       </c>
       <c r="O17">
-        <v>0.06099507052869112</v>
+        <v>0.08316609416828624</v>
       </c>
       <c r="P17">
-        <v>0.04749241356290961</v>
+        <v>0.06612240489492104</v>
       </c>
       <c r="Q17">
-        <v>0.9008534554194999</v>
+        <v>2.52918064149275</v>
       </c>
       <c r="R17">
-        <v>5.405120732517</v>
+        <v>10.116722565971</v>
       </c>
       <c r="S17">
-        <v>0.002086712670630801</v>
+        <v>0.01584180684608375</v>
       </c>
       <c r="T17">
-        <v>0.002053144891779453</v>
+        <v>0.01055147395155218</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1234456666666667</v>
+        <v>0.2831585</v>
       </c>
       <c r="H18">
-        <v>0.370337</v>
+        <v>0.566317</v>
       </c>
       <c r="I18">
-        <v>0.03421116907552791</v>
+        <v>0.1904839586914821</v>
       </c>
       <c r="J18">
-        <v>0.04323100760208379</v>
+        <v>0.1595748667689891</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>29.34831033333333</v>
+        <v>7.405844333333333</v>
       </c>
       <c r="N18">
-        <v>88.04493099999999</v>
+        <v>22.217533</v>
       </c>
       <c r="O18">
-        <v>0.2453011257211672</v>
+        <v>0.06895577419556446</v>
       </c>
       <c r="P18">
-        <v>0.2864971482748841</v>
+        <v>0.0822364269982853</v>
       </c>
       <c r="Q18">
-        <v>3.622921734638556</v>
+        <v>2.097027772660167</v>
       </c>
       <c r="R18">
-        <v>32.606295611747</v>
+        <v>12.582166635961</v>
       </c>
       <c r="S18">
-        <v>0.00839203828646418</v>
+        <v>0.01313496884340707</v>
       </c>
       <c r="T18">
-        <v>0.01238556039504684</v>
+        <v>0.01312286688180908</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1234456666666667</v>
+        <v>0.2831585</v>
       </c>
       <c r="H19">
-        <v>0.370337</v>
+        <v>0.566317</v>
       </c>
       <c r="I19">
-        <v>0.03421116907552791</v>
+        <v>0.1904839586914821</v>
       </c>
       <c r="J19">
-        <v>0.04323100760208379</v>
+        <v>0.1595748667689891</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.833753666666667</v>
+        <v>11.78815666666667</v>
       </c>
       <c r="N19">
-        <v>26.501261</v>
+        <v>35.36447</v>
       </c>
       <c r="O19">
-        <v>0.07383490545674307</v>
+        <v>0.1097594592462545</v>
       </c>
       <c r="P19">
-        <v>0.08623478508022686</v>
+        <v>0.1308987661000909</v>
       </c>
       <c r="Q19">
-        <v>1.090488610550778</v>
+        <v>3.337916759498333</v>
       </c>
       <c r="R19">
-        <v>9.814397494957001</v>
+        <v>20.02750055699</v>
       </c>
       <c r="S19">
-        <v>0.002525978434256255</v>
+        <v>0.02090741630106295</v>
       </c>
       <c r="T19">
-        <v>0.00372801664936735</v>
+        <v>0.02088815316064708</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.3443785</v>
+        <v>0.051122</v>
       </c>
       <c r="H20">
-        <v>0.6887570000000001</v>
+        <v>0.153366</v>
       </c>
       <c r="I20">
-        <v>0.09543948692253289</v>
+        <v>0.03439035358721687</v>
       </c>
       <c r="J20">
-        <v>0.08040152375535912</v>
+        <v>0.04321494678226644</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>44.3131355</v>
+        <v>43.1011505</v>
       </c>
       <c r="N20">
-        <v>88.626271</v>
+        <v>86.20230100000001</v>
       </c>
       <c r="O20">
-        <v>0.3703811871594727</v>
+        <v>0.4013145655884081</v>
       </c>
       <c r="P20">
-        <v>0.2883888216544467</v>
+        <v>0.3190709442524837</v>
       </c>
       <c r="Q20">
-        <v>15.26049113378675</v>
+        <v>2.203417015861</v>
       </c>
       <c r="R20">
-        <v>61.04196453514701</v>
+        <v>13.220502095166</v>
       </c>
       <c r="S20">
-        <v>0.0353489904682587</v>
+        <v>0.01380134981028569</v>
       </c>
       <c r="T20">
-        <v>0.02318690069503002</v>
+        <v>0.01378863387563858</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.3443785</v>
+        <v>0.051122</v>
       </c>
       <c r="H21">
-        <v>0.6887570000000001</v>
+        <v>0.153366</v>
       </c>
       <c r="I21">
-        <v>0.09543948692253289</v>
+        <v>0.03439035358721687</v>
       </c>
       <c r="J21">
-        <v>0.08040152375535912</v>
+        <v>0.04321494678226644</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>44.872277</v>
       </c>
       <c r="O21">
-        <v>0.1250182144134117</v>
+        <v>0.1392685047639097</v>
       </c>
       <c r="P21">
-        <v>0.1460138505543343</v>
+        <v>0.1660911556542906</v>
       </c>
       <c r="Q21">
-        <v>5.151015814948167</v>
+        <v>0.7646535149313334</v>
       </c>
       <c r="R21">
-        <v>30.906094889689</v>
+        <v>6.881881634382001</v>
       </c>
       <c r="S21">
-        <v>0.01193167423958722</v>
+        <v>0.004789493122393852</v>
       </c>
       <c r="T21">
-        <v>0.01173973607395576</v>
+        <v>0.007177620452605299</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.3443785</v>
+        <v>0.051122</v>
       </c>
       <c r="H22">
-        <v>0.6887570000000001</v>
+        <v>0.153366</v>
       </c>
       <c r="I22">
-        <v>0.09543948692253289</v>
+        <v>0.03439035358721687</v>
       </c>
       <c r="J22">
-        <v>0.08040152375535912</v>
+        <v>0.04321494678226644</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>14.891776</v>
+        <v>21.215307</v>
       </c>
       <c r="N22">
-        <v>44.675328</v>
+        <v>63.645921</v>
       </c>
       <c r="O22">
-        <v>0.124469496720514</v>
+        <v>0.197535602037577</v>
       </c>
       <c r="P22">
-        <v>0.1453729808731985</v>
+        <v>0.2355803020999286</v>
       </c>
       <c r="Q22">
-        <v>5.128407481216001</v>
+        <v>1.084568924454</v>
       </c>
       <c r="R22">
-        <v>30.770444887296</v>
+        <v>9.761120320086</v>
       </c>
       <c r="S22">
-        <v>0.01187930490451175</v>
+        <v>0.00679331920013603</v>
       </c>
       <c r="T22">
-        <v>0.01168820917506384</v>
+        <v>0.01018059021819867</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.3443785</v>
+        <v>0.051122</v>
       </c>
       <c r="H23">
-        <v>0.6887570000000001</v>
+        <v>0.153366</v>
       </c>
       <c r="I23">
-        <v>0.09543948692253289</v>
+        <v>0.03439035358721687</v>
       </c>
       <c r="J23">
-        <v>0.08040152375535912</v>
+        <v>0.04321494678226644</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.297570499999999</v>
+        <v>8.932031500000001</v>
       </c>
       <c r="N23">
-        <v>14.595141</v>
+        <v>17.864063</v>
       </c>
       <c r="O23">
-        <v>0.06099507052869112</v>
+        <v>0.08316609416828624</v>
       </c>
       <c r="P23">
-        <v>0.04749241356290961</v>
+        <v>0.06612240489492104</v>
       </c>
       <c r="Q23">
-        <v>2.51312638243425</v>
+        <v>0.456623314343</v>
       </c>
       <c r="R23">
-        <v>10.052505529737</v>
+        <v>2.739739886058</v>
       </c>
       <c r="S23">
-        <v>0.005821338236061987</v>
+        <v>0.002860111384915139</v>
       </c>
       <c r="T23">
-        <v>0.003818462417277616</v>
+        <v>0.002857476208649487</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.3443785</v>
+        <v>0.051122</v>
       </c>
       <c r="H24">
-        <v>0.6887570000000001</v>
+        <v>0.153366</v>
       </c>
       <c r="I24">
-        <v>0.09543948692253289</v>
+        <v>0.03439035358721687</v>
       </c>
       <c r="J24">
-        <v>0.08040152375535912</v>
+        <v>0.04321494678226644</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>29.34831033333333</v>
+        <v>7.405844333333333</v>
       </c>
       <c r="N24">
-        <v>88.04493099999999</v>
+        <v>22.217533</v>
       </c>
       <c r="O24">
-        <v>0.2453011257211672</v>
+        <v>0.06895577419556446</v>
       </c>
       <c r="P24">
-        <v>0.2864971482748841</v>
+        <v>0.0822364269982853</v>
       </c>
       <c r="Q24">
-        <v>10.10692709012783</v>
+        <v>0.3786015740086667</v>
       </c>
       <c r="R24">
-        <v>60.641562540767</v>
+        <v>3.407414166078</v>
       </c>
       <c r="S24">
-        <v>0.02341141358034794</v>
+        <v>0.002371413456465747</v>
       </c>
       <c r="T24">
-        <v>0.02303480727286574</v>
+        <v>0.003553842816294639</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.3443785</v>
+        <v>0.051122</v>
       </c>
       <c r="H25">
-        <v>0.6887570000000001</v>
+        <v>0.153366</v>
       </c>
       <c r="I25">
-        <v>0.09543948692253289</v>
+        <v>0.03439035358721687</v>
       </c>
       <c r="J25">
-        <v>0.08040152375535912</v>
+        <v>0.04321494678226644</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,772 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.833753666666667</v>
+        <v>11.78815666666667</v>
       </c>
       <c r="N25">
-        <v>26.501261</v>
+        <v>35.36447</v>
       </c>
       <c r="O25">
-        <v>0.07383490545674307</v>
+        <v>0.1097594592462545</v>
       </c>
       <c r="P25">
-        <v>0.08623478508022686</v>
+        <v>0.1308987661000909</v>
       </c>
       <c r="Q25">
-        <v>3.042154837096167</v>
+        <v>0.6026341451133334</v>
       </c>
       <c r="R25">
-        <v>18.252929022577</v>
+        <v>5.423707306020001</v>
       </c>
       <c r="S25">
-        <v>0.007046765493765282</v>
+        <v>0.003774666613020411</v>
       </c>
       <c r="T25">
-        <v>0.006933408121166149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.547919</v>
-      </c>
-      <c r="H26">
-        <v>1.643757</v>
-      </c>
-      <c r="I26">
-        <v>0.1518477728287547</v>
-      </c>
-      <c r="J26">
-        <v>0.1918827213132321</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>44.3131355</v>
-      </c>
-      <c r="N26">
-        <v>88.626271</v>
-      </c>
-      <c r="O26">
-        <v>0.3703811871594727</v>
-      </c>
-      <c r="P26">
-        <v>0.2883888216544467</v>
-      </c>
-      <c r="Q26">
-        <v>24.2800088900245</v>
-      </c>
-      <c r="R26">
-        <v>145.680053340147</v>
-      </c>
-      <c r="S26">
-        <v>0.05624155836783609</v>
-      </c>
-      <c r="T26">
-        <v>0.0553368318953716</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0.547919</v>
-      </c>
-      <c r="H27">
-        <v>1.643757</v>
-      </c>
-      <c r="I27">
-        <v>0.1518477728287547</v>
-      </c>
-      <c r="J27">
-        <v>0.1918827213132321</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>14.95742566666667</v>
-      </c>
-      <c r="N27">
-        <v>44.872277</v>
-      </c>
-      <c r="O27">
-        <v>0.1250182144134117</v>
-      </c>
-      <c r="P27">
-        <v>0.1460138505543343</v>
-      </c>
-      <c r="Q27">
-        <v>8.195457713854333</v>
-      </c>
-      <c r="R27">
-        <v>73.759119424689</v>
-      </c>
-      <c r="S27">
-        <v>0.01898373742170429</v>
-      </c>
-      <c r="T27">
-        <v>0.02801753499378925</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0.547919</v>
-      </c>
-      <c r="H28">
-        <v>1.643757</v>
-      </c>
-      <c r="I28">
-        <v>0.1518477728287547</v>
-      </c>
-      <c r="J28">
-        <v>0.1918827213132321</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>14.891776</v>
-      </c>
-      <c r="N28">
-        <v>44.675328</v>
-      </c>
-      <c r="O28">
-        <v>0.124469496720514</v>
-      </c>
-      <c r="P28">
-        <v>0.1453729808731985</v>
-      </c>
-      <c r="Q28">
-        <v>8.159487014144</v>
-      </c>
-      <c r="R28">
-        <v>73.43538312729601</v>
-      </c>
-      <c r="S28">
-        <v>0.01890041586212604</v>
-      </c>
-      <c r="T28">
-        <v>0.02789456317536577</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0.547919</v>
-      </c>
-      <c r="H29">
-        <v>1.643757</v>
-      </c>
-      <c r="I29">
-        <v>0.1518477728287547</v>
-      </c>
-      <c r="J29">
-        <v>0.1918827213132321</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>7.297570499999999</v>
-      </c>
-      <c r="N29">
-        <v>14.595141</v>
-      </c>
-      <c r="O29">
-        <v>0.06099507052869112</v>
-      </c>
-      <c r="P29">
-        <v>0.04749241356290961</v>
-      </c>
-      <c r="Q29">
-        <v>3.9984775307895</v>
-      </c>
-      <c r="R29">
-        <v>23.990865184737</v>
-      </c>
-      <c r="S29">
-        <v>0.009261965613314561</v>
-      </c>
-      <c r="T29">
-        <v>0.00911297355618455</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>0.547919</v>
-      </c>
-      <c r="H30">
-        <v>1.643757</v>
-      </c>
-      <c r="I30">
-        <v>0.1518477728287547</v>
-      </c>
-      <c r="J30">
-        <v>0.1918827213132321</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>29.34831033333333</v>
-      </c>
-      <c r="N30">
-        <v>88.04493099999999</v>
-      </c>
-      <c r="O30">
-        <v>0.2453011257211672</v>
-      </c>
-      <c r="P30">
-        <v>0.2864971482748841</v>
-      </c>
-      <c r="Q30">
-        <v>16.08049684952967</v>
-      </c>
-      <c r="R30">
-        <v>144.724471645767</v>
-      </c>
-      <c r="S30">
-        <v>0.0372484296131456</v>
-      </c>
-      <c r="T30">
-        <v>0.05497385245946533</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.547919</v>
-      </c>
-      <c r="H31">
-        <v>1.643757</v>
-      </c>
-      <c r="I31">
-        <v>0.1518477728287547</v>
-      </c>
-      <c r="J31">
-        <v>0.1918827213132321</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>8.833753666666667</v>
-      </c>
-      <c r="N31">
-        <v>26.501261</v>
-      </c>
-      <c r="O31">
-        <v>0.07383490545674307</v>
-      </c>
-      <c r="P31">
-        <v>0.08623478508022686</v>
-      </c>
-      <c r="Q31">
-        <v>4.840181475286333</v>
-      </c>
-      <c r="R31">
-        <v>43.561633277577</v>
-      </c>
-      <c r="S31">
-        <v>0.0112116659506281</v>
-      </c>
-      <c r="T31">
-        <v>0.01654696523305564</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.1536683333333333</v>
-      </c>
-      <c r="H32">
-        <v>0.461005</v>
-      </c>
-      <c r="I32">
-        <v>0.04258694108248363</v>
-      </c>
-      <c r="J32">
-        <v>0.05381506751849974</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>44.3131355</v>
-      </c>
-      <c r="N32">
-        <v>88.626271</v>
-      </c>
-      <c r="O32">
-        <v>0.3703811871594727</v>
-      </c>
-      <c r="P32">
-        <v>0.2883888216544467</v>
-      </c>
-      <c r="Q32">
-        <v>6.809525677059167</v>
-      </c>
-      <c r="R32">
-        <v>40.857154062355</v>
-      </c>
-      <c r="S32">
-        <v>0.01577340179562081</v>
-      </c>
-      <c r="T32">
-        <v>0.01551966390891463</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.1536683333333333</v>
-      </c>
-      <c r="H33">
-        <v>0.461005</v>
-      </c>
-      <c r="I33">
-        <v>0.04258694108248363</v>
-      </c>
-      <c r="J33">
-        <v>0.05381506751849974</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>14.95742566666667</v>
-      </c>
-      <c r="N33">
-        <v>44.872277</v>
-      </c>
-      <c r="O33">
-        <v>0.1250182144134117</v>
-      </c>
-      <c r="P33">
-        <v>0.1460138505543343</v>
-      </c>
-      <c r="Q33">
-        <v>2.298482673153889</v>
-      </c>
-      <c r="R33">
-        <v>20.686344058385</v>
-      </c>
-      <c r="S33">
-        <v>0.005324143331461272</v>
-      </c>
-      <c r="T33">
-        <v>0.007857745226217631</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.1536683333333333</v>
-      </c>
-      <c r="H34">
-        <v>0.461005</v>
-      </c>
-      <c r="I34">
-        <v>0.04258694108248363</v>
-      </c>
-      <c r="J34">
-        <v>0.05381506751849974</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>14.891776</v>
-      </c>
-      <c r="N34">
-        <v>44.675328</v>
-      </c>
-      <c r="O34">
-        <v>0.124469496720514</v>
-      </c>
-      <c r="P34">
-        <v>0.1453729808731985</v>
-      </c>
-      <c r="Q34">
-        <v>2.288394398293333</v>
-      </c>
-      <c r="R34">
-        <v>20.59554958464</v>
-      </c>
-      <c r="S34">
-        <v>0.00530077512340292</v>
-      </c>
-      <c r="T34">
-        <v>0.007823256781056749</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.1536683333333333</v>
-      </c>
-      <c r="H35">
-        <v>0.461005</v>
-      </c>
-      <c r="I35">
-        <v>0.04258694108248363</v>
-      </c>
-      <c r="J35">
-        <v>0.05381506751849974</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>7.297570499999999</v>
-      </c>
-      <c r="N35">
-        <v>14.595141</v>
-      </c>
-      <c r="O35">
-        <v>0.06099507052869112</v>
-      </c>
-      <c r="P35">
-        <v>0.04749241356290961</v>
-      </c>
-      <c r="Q35">
-        <v>1.1214054961175</v>
-      </c>
-      <c r="R35">
-        <v>6.728432976704999</v>
-      </c>
-      <c r="S35">
-        <v>0.002597593474927303</v>
-      </c>
-      <c r="T35">
-        <v>0.002555807442504493</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.1536683333333333</v>
-      </c>
-      <c r="H36">
-        <v>0.461005</v>
-      </c>
-      <c r="I36">
-        <v>0.04258694108248363</v>
-      </c>
-      <c r="J36">
-        <v>0.05381506751849974</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>29.34831033333333</v>
-      </c>
-      <c r="N36">
-        <v>88.04493099999999</v>
-      </c>
-      <c r="O36">
-        <v>0.2453011257211672</v>
-      </c>
-      <c r="P36">
-        <v>0.2864971482748841</v>
-      </c>
-      <c r="Q36">
-        <v>4.509905935072777</v>
-      </c>
-      <c r="R36">
-        <v>40.589153415655</v>
-      </c>
-      <c r="S36">
-        <v>0.01044662458855426</v>
-      </c>
-      <c r="T36">
-        <v>0.01541786337827052</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.1536683333333333</v>
-      </c>
-      <c r="H37">
-        <v>0.461005</v>
-      </c>
-      <c r="I37">
-        <v>0.04258694108248363</v>
-      </c>
-      <c r="J37">
-        <v>0.05381506751849974</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>8.833753666666667</v>
-      </c>
-      <c r="N37">
-        <v>26.501261</v>
-      </c>
-      <c r="O37">
-        <v>0.07383490545674307</v>
-      </c>
-      <c r="P37">
-        <v>0.08623478508022686</v>
-      </c>
-      <c r="Q37">
-        <v>1.357468203033889</v>
-      </c>
-      <c r="R37">
-        <v>12.217213827305</v>
-      </c>
-      <c r="S37">
-        <v>0.003144402768517067</v>
-      </c>
-      <c r="T37">
-        <v>0.004640730781535723</v>
+        <v>0.005656783210879771</v>
       </c>
     </row>
   </sheetData>
